--- a/state_results/Rivers/KaiIwiatHandleyRoad_08593f41c8.xlsx
+++ b/state_results/Rivers/KaiIwiatHandleyRoad_08593f41c8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U52"/>
+  <dimension ref="A1:U69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -813,10 +813,10 @@
         <v>340</v>
       </c>
       <c r="G5" t="n">
-        <v>1236.00420472853</v>
+        <v>1230.32697611648</v>
       </c>
       <c r="H5" t="n">
-        <v>16801.2480789832</v>
+        <v>16466.291590872</v>
       </c>
       <c r="I5" t="n">
         <v>5160</v>
@@ -898,10 +898,10 @@
         <v>340</v>
       </c>
       <c r="G6" t="n">
-        <v>1236.00420472853</v>
+        <v>1230.32697611648</v>
       </c>
       <c r="H6" t="n">
-        <v>16801.2480789832</v>
+        <v>16466.291590872</v>
       </c>
       <c r="I6" t="n">
         <v>5160</v>
@@ -983,10 +983,10 @@
         <v>340</v>
       </c>
       <c r="G7" t="n">
-        <v>1236.00420472853</v>
+        <v>1230.32697611648</v>
       </c>
       <c r="H7" t="n">
-        <v>16801.2480789832</v>
+        <v>16466.291590872</v>
       </c>
       <c r="I7" t="n">
         <v>5160</v>
@@ -1068,10 +1068,10 @@
         <v>340</v>
       </c>
       <c r="G8" t="n">
-        <v>1236.00420472853</v>
+        <v>1230.32697611648</v>
       </c>
       <c r="H8" t="n">
-        <v>16801.2480789832</v>
+        <v>16466.291590872</v>
       </c>
       <c r="I8" t="n">
         <v>5160</v>
@@ -1153,7 +1153,7 @@
         <v>0.02552</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0252152301191149</v>
+        <v>0.025225264181427</v>
       </c>
       <c r="H9" t="n">
         <v>0.0656685061424687</v>
@@ -1234,7 +1234,7 @@
         <v>0.02552</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0252152301191149</v>
+        <v>0.025225264181427</v>
       </c>
       <c r="H10" t="n">
         <v>0.0656685061424687</v>
@@ -1473,7 +1473,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="G13" t="n">
-        <v>0.58569387755102</v>
+        <v>0.585683673469388</v>
       </c>
       <c r="H13" t="n">
         <v>0.92</v>
@@ -1487,7 +1487,7 @@
         <v>0.46</v>
       </c>
       <c r="M13" t="n">
-        <v>0.75017</v>
+        <v>0.75008</v>
       </c>
       <c r="N13" t="n">
         <v>0.8258</v>
@@ -1550,7 +1550,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="G14" t="n">
-        <v>0.58569387755102</v>
+        <v>0.585683673469388</v>
       </c>
       <c r="H14" t="n">
         <v>0.92</v>
@@ -1564,7 +1564,7 @@
         <v>0.46</v>
       </c>
       <c r="M14" t="n">
-        <v>0.75017</v>
+        <v>0.75008</v>
       </c>
       <c r="N14" t="n">
         <v>0.8258</v>
@@ -2182,10 +2182,10 @@
         <v>320</v>
       </c>
       <c r="G22" t="n">
-        <v>1139.15674710141</v>
+        <v>1133.47951848936</v>
       </c>
       <c r="H22" t="n">
-        <v>16801.2480789832</v>
+        <v>16466.291590872</v>
       </c>
       <c r="I22" t="n">
         <v>5025</v>
@@ -2267,10 +2267,10 @@
         <v>320</v>
       </c>
       <c r="G23" t="n">
-        <v>1139.15674710141</v>
+        <v>1133.47951848936</v>
       </c>
       <c r="H23" t="n">
-        <v>16801.2480789832</v>
+        <v>16466.291590872</v>
       </c>
       <c r="I23" t="n">
         <v>5025</v>
@@ -2352,10 +2352,10 @@
         <v>320</v>
       </c>
       <c r="G24" t="n">
-        <v>1139.15674710141</v>
+        <v>1133.47951848936</v>
       </c>
       <c r="H24" t="n">
-        <v>16801.2480789832</v>
+        <v>16466.291590872</v>
       </c>
       <c r="I24" t="n">
         <v>5025</v>
@@ -2437,10 +2437,10 @@
         <v>320</v>
       </c>
       <c r="G25" t="n">
-        <v>1139.15674710141</v>
+        <v>1133.47951848936</v>
       </c>
       <c r="H25" t="n">
-        <v>16801.2480789832</v>
+        <v>16466.291590872</v>
       </c>
       <c r="I25" t="n">
         <v>5025</v>
@@ -2522,7 +2522,7 @@
         <v>0.02203</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0235683450222924</v>
+        <v>0.0235766751872308</v>
       </c>
       <c r="H26" t="n">
         <v>0.0656685061424687</v>
@@ -2603,7 +2603,7 @@
         <v>0.02203</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0235683450222924</v>
+        <v>0.0235766751872308</v>
       </c>
       <c r="H27" t="n">
         <v>0.0656685061424687</v>
@@ -2842,7 +2842,7 @@
         <v>0.556</v>
       </c>
       <c r="G30" t="n">
-        <v>0.578051724137931</v>
+        <v>0.578043103448276</v>
       </c>
       <c r="H30" t="n">
         <v>0.92</v>
@@ -2919,7 +2919,7 @@
         <v>0.556</v>
       </c>
       <c r="G31" t="n">
-        <v>0.578051724137931</v>
+        <v>0.578043103448276</v>
       </c>
       <c r="H31" t="n">
         <v>0.92</v>
@@ -3551,7 +3551,7 @@
         <v>380</v>
       </c>
       <c r="G39" t="n">
-        <v>1510.09207156111</v>
+        <v>1504.21564194512</v>
       </c>
       <c r="H39" t="n">
         <v>17250</v>
@@ -3636,7 +3636,7 @@
         <v>380</v>
       </c>
       <c r="G40" t="n">
-        <v>1510.09207156111</v>
+        <v>1504.21564194512</v>
       </c>
       <c r="H40" t="n">
         <v>17250</v>
@@ -3721,7 +3721,7 @@
         <v>380</v>
       </c>
       <c r="G41" t="n">
-        <v>1510.09207156111</v>
+        <v>1504.21564194512</v>
       </c>
       <c r="H41" t="n">
         <v>17250</v>
@@ -3806,7 +3806,7 @@
         <v>380</v>
       </c>
       <c r="G42" t="n">
-        <v>1510.09207156111</v>
+        <v>1504.21564194512</v>
       </c>
       <c r="H42" t="n">
         <v>17250</v>
@@ -3891,7 +3891,7 @@
         <v>0.02279</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0233092909744377</v>
+        <v>0.0233177813348556</v>
       </c>
       <c r="H43" t="n">
         <v>0.0656685061424687</v>
@@ -3972,7 +3972,7 @@
         <v>0.02279</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0233092909744377</v>
+        <v>0.0233177813348556</v>
       </c>
       <c r="H44" t="n">
         <v>0.0656685061424687</v>
@@ -4211,7 +4211,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5899122807017541</v>
+        <v>0.58990350877193</v>
       </c>
       <c r="H47" t="n">
         <v>0.948</v>
@@ -4288,7 +4288,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="G48" t="n">
-        <v>0.5899122807017541</v>
+        <v>0.58990350877193</v>
       </c>
       <c r="H48" t="n">
         <v>0.948</v>
@@ -4647,6 +4647,1375 @@
         </is>
       </c>
     </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Kai Iwi at Handley Road</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 4)</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.227882352941176</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.3772</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.4756</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1762564</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5583791</v>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>West_2</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Kai Iwi at Handley Road</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.0182549019607843</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.03465</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.02466</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="O54" t="n">
+        <v>1762564</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5583791</v>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>West_2</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Kai Iwi at Handley Road</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.0182549019607843</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.03465</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.02466</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="O55" t="n">
+        <v>1762564</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5583791</v>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>West_2</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Kai Iwi at Handley Road</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>330</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1571.1233645269</v>
+      </c>
+      <c r="H56" t="n">
+        <v>17250</v>
+      </c>
+      <c r="I56" t="n">
+        <v>9455.65</v>
+      </c>
+      <c r="J56" t="n">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="K56" t="n">
+        <v>62.7450980392157</v>
+      </c>
+      <c r="L56" t="n">
+        <v>270</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1583</v>
+      </c>
+      <c r="N56" t="n">
+        <v>4619.86</v>
+      </c>
+      <c r="O56" t="n">
+        <v>1762564</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5583791</v>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>West_2</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Kai Iwi at Handley Road</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>330</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1571.1233645269</v>
+      </c>
+      <c r="H57" t="n">
+        <v>17250</v>
+      </c>
+      <c r="I57" t="n">
+        <v>9455.65</v>
+      </c>
+      <c r="J57" t="n">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="K57" t="n">
+        <v>62.7450980392157</v>
+      </c>
+      <c r="L57" t="n">
+        <v>270</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1583</v>
+      </c>
+      <c r="N57" t="n">
+        <v>4619.86</v>
+      </c>
+      <c r="O57" t="n">
+        <v>1762564</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5583791</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>West_2</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Kai Iwi at Handley Road</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>330</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1571.1233645269</v>
+      </c>
+      <c r="H58" t="n">
+        <v>17250</v>
+      </c>
+      <c r="I58" t="n">
+        <v>9455.65</v>
+      </c>
+      <c r="J58" t="n">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="K58" t="n">
+        <v>62.7450980392157</v>
+      </c>
+      <c r="L58" t="n">
+        <v>270</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1583</v>
+      </c>
+      <c r="N58" t="n">
+        <v>4619.86</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1762564</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5583791</v>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>West_2</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Kai Iwi at Handley Road</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>330</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1571.1233645269</v>
+      </c>
+      <c r="H59" t="n">
+        <v>17250</v>
+      </c>
+      <c r="I59" t="n">
+        <v>9455.65</v>
+      </c>
+      <c r="J59" t="n">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="K59" t="n">
+        <v>62.7450980392157</v>
+      </c>
+      <c r="L59" t="n">
+        <v>270</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1583</v>
+      </c>
+      <c r="N59" t="n">
+        <v>4619.86</v>
+      </c>
+      <c r="O59" t="n">
+        <v>1762564</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5583791</v>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>West_2</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Kai Iwi at Handley Road</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>0.02184</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.0238308254280005</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.0778197039545465</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.05481</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>0.02389</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.03314</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.05001</v>
+      </c>
+      <c r="O60" t="n">
+        <v>1762564</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5583791</v>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>West_2</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Kai Iwi at Handley Road</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>0.02184</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.0238308254280005</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.0778197039545465</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.05481</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>0.02389</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.03314</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.05001</v>
+      </c>
+      <c r="O61" t="n">
+        <v>1762564</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5583791</v>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>West_2</t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Kai Iwi at Handley Road</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>0.551</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.573921568627451</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.914</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.8299</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>0.439</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.7266</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.80248</v>
+      </c>
+      <c r="O62" t="n">
+        <v>1762564</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5583791</v>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>West_2</t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Kai Iwi at Handley Road</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>0.551</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.573921568627451</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.914</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.8299</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>0.439</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.7266</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.80248</v>
+      </c>
+      <c r="O63" t="n">
+        <v>1762564</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5583791</v>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>West_2</t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Kai Iwi at Handley Road</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>0.582</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.602676470588235</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.948</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.8609</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>0.471</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.74769</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.83188</v>
+      </c>
+      <c r="O64" t="n">
+        <v>1762564</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5583791</v>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>West_2</t>
+        </is>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Kai Iwi at Handley Road</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>0.582</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.602676470588235</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.948</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.8609</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>0.471</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.74769</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.83188</v>
+      </c>
+      <c r="O65" t="n">
+        <v>1762564</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5583791</v>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>West_2</t>
+        </is>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Kai Iwi at Handley Road</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.97156862745098</v>
+      </c>
+      <c r="H66" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="I66" t="n">
+        <v>2.0525</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N66" t="n">
+        <v>1.4546</v>
+      </c>
+      <c r="O66" t="n">
+        <v>1762564</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5583791</v>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>West_2</t>
+        </is>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Kai Iwi at Handley Road</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.97156862745098</v>
+      </c>
+      <c r="H67" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="I67" t="n">
+        <v>2.0525</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N67" t="n">
+        <v>1.4546</v>
+      </c>
+      <c r="O67" t="n">
+        <v>1762564</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5583791</v>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>West_2</t>
+        </is>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Kai Iwi at Handley Road</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.124372549019608</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.5044</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.13283</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.32578</v>
+      </c>
+      <c r="O68" t="n">
+        <v>1762564</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5583791</v>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>West_2</t>
+        </is>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Kai Iwi at Handley Road</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.124372549019608</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.5044</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.13283</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.32578</v>
+      </c>
+      <c r="O69" t="n">
+        <v>1762564</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5583791</v>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>West_2</t>
+        </is>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/KaiIwiatHandleyRoad_08593f41c8.xlsx
+++ b/state_results/Rivers/KaiIwiatHandleyRoad_08593f41c8.xlsx
@@ -813,10 +813,10 @@
         <v>340</v>
       </c>
       <c r="G5" t="n">
-        <v>1230.32697611648</v>
+        <v>1131.5271754315</v>
       </c>
       <c r="H5" t="n">
-        <v>16466.291590872</v>
+        <v>10637.1033504588</v>
       </c>
       <c r="I5" t="n">
         <v>5160</v>
@@ -898,10 +898,10 @@
         <v>340</v>
       </c>
       <c r="G6" t="n">
-        <v>1230.32697611648</v>
+        <v>1131.5271754315</v>
       </c>
       <c r="H6" t="n">
-        <v>16466.291590872</v>
+        <v>10637.1033504588</v>
       </c>
       <c r="I6" t="n">
         <v>5160</v>
@@ -983,10 +983,10 @@
         <v>340</v>
       </c>
       <c r="G7" t="n">
-        <v>1230.32697611648</v>
+        <v>1131.5271754315</v>
       </c>
       <c r="H7" t="n">
-        <v>16466.291590872</v>
+        <v>10637.1033504588</v>
       </c>
       <c r="I7" t="n">
         <v>5160</v>
@@ -1068,10 +1068,10 @@
         <v>340</v>
       </c>
       <c r="G8" t="n">
-        <v>1230.32697611648</v>
+        <v>1131.5271754315</v>
       </c>
       <c r="H8" t="n">
-        <v>16466.291590872</v>
+        <v>10637.1033504588</v>
       </c>
       <c r="I8" t="n">
         <v>5160</v>
@@ -2182,10 +2182,10 @@
         <v>320</v>
       </c>
       <c r="G22" t="n">
-        <v>1133.47951848936</v>
+        <v>1034.67971780439</v>
       </c>
       <c r="H22" t="n">
-        <v>16466.291590872</v>
+        <v>10637.1033504588</v>
       </c>
       <c r="I22" t="n">
         <v>5025</v>
@@ -2267,10 +2267,10 @@
         <v>320</v>
       </c>
       <c r="G23" t="n">
-        <v>1133.47951848936</v>
+        <v>1034.67971780439</v>
       </c>
       <c r="H23" t="n">
-        <v>16466.291590872</v>
+        <v>10637.1033504588</v>
       </c>
       <c r="I23" t="n">
         <v>5025</v>
@@ -2352,10 +2352,10 @@
         <v>320</v>
       </c>
       <c r="G24" t="n">
-        <v>1133.47951848936</v>
+        <v>1034.67971780439</v>
       </c>
       <c r="H24" t="n">
-        <v>16466.291590872</v>
+        <v>10637.1033504588</v>
       </c>
       <c r="I24" t="n">
         <v>5025</v>
@@ -2437,10 +2437,10 @@
         <v>320</v>
       </c>
       <c r="G25" t="n">
-        <v>1133.47951848936</v>
+        <v>1034.67971780439</v>
       </c>
       <c r="H25" t="n">
-        <v>16466.291590872</v>
+        <v>10637.1033504588</v>
       </c>
       <c r="I25" t="n">
         <v>5025</v>
@@ -3551,7 +3551,7 @@
         <v>380</v>
       </c>
       <c r="G39" t="n">
-        <v>1504.21564194512</v>
+        <v>1401.949181587</v>
       </c>
       <c r="H39" t="n">
         <v>17250</v>
@@ -3636,7 +3636,7 @@
         <v>380</v>
       </c>
       <c r="G40" t="n">
-        <v>1504.21564194512</v>
+        <v>1401.949181587</v>
       </c>
       <c r="H40" t="n">
         <v>17250</v>
@@ -3721,7 +3721,7 @@
         <v>380</v>
       </c>
       <c r="G41" t="n">
-        <v>1504.21564194512</v>
+        <v>1401.949181587</v>
       </c>
       <c r="H41" t="n">
         <v>17250</v>
@@ -3806,7 +3806,7 @@
         <v>380</v>
       </c>
       <c r="G42" t="n">
-        <v>1504.21564194512</v>
+        <v>1401.949181587</v>
       </c>
       <c r="H42" t="n">
         <v>17250</v>
@@ -4920,7 +4920,7 @@
         <v>330</v>
       </c>
       <c r="G56" t="n">
-        <v>1571.1233645269</v>
+        <v>1456.82555589135</v>
       </c>
       <c r="H56" t="n">
         <v>17250</v>
@@ -5005,7 +5005,7 @@
         <v>330</v>
       </c>
       <c r="G57" t="n">
-        <v>1571.1233645269</v>
+        <v>1456.82555589135</v>
       </c>
       <c r="H57" t="n">
         <v>17250</v>
@@ -5090,7 +5090,7 @@
         <v>330</v>
       </c>
       <c r="G58" t="n">
-        <v>1571.1233645269</v>
+        <v>1456.82555589135</v>
       </c>
       <c r="H58" t="n">
         <v>17250</v>
@@ -5175,7 +5175,7 @@
         <v>330</v>
       </c>
       <c r="G59" t="n">
-        <v>1571.1233645269</v>
+        <v>1456.82555589135</v>
       </c>
       <c r="H59" t="n">
         <v>17250</v>

--- a/state_results/Rivers/KaiIwiatHandleyRoad_08593f41c8.xlsx
+++ b/state_results/Rivers/KaiIwiatHandleyRoad_08593f41c8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="61">
   <si>
     <t>site name</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t>2019 - 2023</t>
+  </si>
+  <si>
+    <t>2020 - 2024</t>
   </si>
   <si>
     <t>RepSite</t>
@@ -551,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U69"/>
+  <dimension ref="A1:U85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -636,7 +639,7 @@
         <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F2">
         <v>0.23</v>
@@ -651,7 +654,7 @@
         <v>0.4935</v>
       </c>
       <c r="L2">
-        <v>0.31</v>
+        <v>0.3175</v>
       </c>
       <c r="M2">
         <v>0.36003</v>
@@ -666,19 +669,19 @@
         <v>5583791</v>
       </c>
       <c r="Q2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -695,7 +698,7 @@
         <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F3">
         <v>0.016</v>
@@ -725,19 +728,19 @@
         <v>5583791</v>
       </c>
       <c r="Q3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -754,7 +757,7 @@
         <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F4">
         <v>0.016</v>
@@ -784,19 +787,19 @@
         <v>5583791</v>
       </c>
       <c r="Q4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -813,16 +816,16 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F5">
         <v>340</v>
       </c>
       <c r="G5">
-        <v>1121.88245802787</v>
+        <v>1148.31489147087</v>
       </c>
       <c r="H5">
-        <v>10068.0650236444</v>
+        <v>11627.5785967814</v>
       </c>
       <c r="I5">
         <v>5160</v>
@@ -834,7 +837,7 @@
         <v>66.1016949152542</v>
       </c>
       <c r="L5">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="M5">
         <v>1500</v>
@@ -849,19 +852,19 @@
         <v>5583791</v>
       </c>
       <c r="Q5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -878,16 +881,16 @@
         <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F6">
         <v>340</v>
       </c>
       <c r="G6">
-        <v>1121.88245802787</v>
+        <v>1148.31489147087</v>
       </c>
       <c r="H6">
-        <v>10068.0650236444</v>
+        <v>11627.5785967814</v>
       </c>
       <c r="I6">
         <v>5160</v>
@@ -899,7 +902,7 @@
         <v>66.1016949152542</v>
       </c>
       <c r="L6">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="M6">
         <v>1500</v>
@@ -914,19 +917,19 @@
         <v>5583791</v>
       </c>
       <c r="Q6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -943,16 +946,16 @@
         <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F7">
         <v>340</v>
       </c>
       <c r="G7">
-        <v>1121.88245802787</v>
+        <v>1148.31489147087</v>
       </c>
       <c r="H7">
-        <v>10068.0650236444</v>
+        <v>11627.5785967814</v>
       </c>
       <c r="I7">
         <v>5160</v>
@@ -964,7 +967,7 @@
         <v>66.1016949152542</v>
       </c>
       <c r="L7">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="M7">
         <v>1500</v>
@@ -979,19 +982,19 @@
         <v>5583791</v>
       </c>
       <c r="Q7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1008,16 +1011,16 @@
         <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F8">
         <v>340</v>
       </c>
       <c r="G8">
-        <v>1121.88245802787</v>
+        <v>1148.31489147087</v>
       </c>
       <c r="H8">
-        <v>10068.0650236444</v>
+        <v>11627.5785967814</v>
       </c>
       <c r="I8">
         <v>5160</v>
@@ -1029,7 +1032,7 @@
         <v>66.1016949152542</v>
       </c>
       <c r="L8">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="M8">
         <v>1500</v>
@@ -1044,19 +1047,19 @@
         <v>5583791</v>
       </c>
       <c r="Q8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1073,13 +1076,13 @@
         <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F9">
         <v>0.02552</v>
       </c>
       <c r="G9">
-        <v>0.025225264181427</v>
+        <v>0.0252311585440953</v>
       </c>
       <c r="H9">
         <v>0.0656685061424687</v>
@@ -1088,7 +1091,7 @@
         <v>0.05242</v>
       </c>
       <c r="L9">
-        <v>0.02691</v>
+        <v>0.02552</v>
       </c>
       <c r="M9">
         <v>0.03529</v>
@@ -1103,19 +1106,19 @@
         <v>5583791</v>
       </c>
       <c r="Q9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1132,13 +1135,13 @@
         <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F10">
         <v>0.02552</v>
       </c>
       <c r="G10">
-        <v>0.025225264181427</v>
+        <v>0.0252311585440953</v>
       </c>
       <c r="H10">
         <v>0.0656685061424687</v>
@@ -1147,7 +1150,7 @@
         <v>0.05242</v>
       </c>
       <c r="L10">
-        <v>0.02691</v>
+        <v>0.02552</v>
       </c>
       <c r="M10">
         <v>0.03529</v>
@@ -1162,19 +1165,19 @@
         <v>5583791</v>
       </c>
       <c r="Q10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1191,7 +1194,7 @@
         <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F11">
         <v>0.506</v>
@@ -1206,7 +1209,7 @@
         <v>0.8058999999999999</v>
       </c>
       <c r="L11">
-        <v>0.4215</v>
+        <v>0.439</v>
       </c>
       <c r="M11">
         <v>0.68058</v>
@@ -1221,19 +1224,19 @@
         <v>5583791</v>
       </c>
       <c r="Q11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1250,7 +1253,7 @@
         <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F12">
         <v>0.506</v>
@@ -1265,7 +1268,7 @@
         <v>0.8058999999999999</v>
       </c>
       <c r="L12">
-        <v>0.4215</v>
+        <v>0.439</v>
       </c>
       <c r="M12">
         <v>0.68058</v>
@@ -1280,19 +1283,19 @@
         <v>5583791</v>
       </c>
       <c r="Q12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1306,7 +1309,7 @@
         <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F13">
         <v>0.5600000000000001</v>
@@ -1321,7 +1324,7 @@
         <v>0.843</v>
       </c>
       <c r="L13">
-        <v>0.46</v>
+        <v>0.471</v>
       </c>
       <c r="M13">
         <v>0.75008</v>
@@ -1336,19 +1339,19 @@
         <v>5583791</v>
       </c>
       <c r="Q13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1362,7 +1365,7 @@
         <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F14">
         <v>0.5600000000000001</v>
@@ -1377,7 +1380,7 @@
         <v>0.843</v>
       </c>
       <c r="L14">
-        <v>0.46</v>
+        <v>0.471</v>
       </c>
       <c r="M14">
         <v>0.75008</v>
@@ -1392,19 +1395,19 @@
         <v>5583791</v>
       </c>
       <c r="Q14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1418,7 +1421,7 @@
         <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F15">
         <v>0.83</v>
@@ -1433,7 +1436,7 @@
         <v>1.684</v>
       </c>
       <c r="L15">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="M15">
         <v>1.0647</v>
@@ -1448,19 +1451,19 @@
         <v>5583791</v>
       </c>
       <c r="Q15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1474,7 +1477,7 @@
         <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F16">
         <v>0.83</v>
@@ -1489,7 +1492,7 @@
         <v>1.684</v>
       </c>
       <c r="L16">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="M16">
         <v>1.0647</v>
@@ -1504,19 +1507,19 @@
         <v>5583791</v>
       </c>
       <c r="Q16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1530,7 +1533,7 @@
         <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F17">
         <v>0.052</v>
@@ -1545,7 +1548,7 @@
         <v>0.393</v>
       </c>
       <c r="L17">
-        <v>0.039</v>
+        <v>0.043</v>
       </c>
       <c r="M17">
         <v>0.12723</v>
@@ -1560,19 +1563,19 @@
         <v>5583791</v>
       </c>
       <c r="Q17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1586,7 +1589,7 @@
         <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F18">
         <v>0.052</v>
@@ -1601,7 +1604,7 @@
         <v>0.393</v>
       </c>
       <c r="L18">
-        <v>0.039</v>
+        <v>0.043</v>
       </c>
       <c r="M18">
         <v>0.12723</v>
@@ -1616,19 +1619,19 @@
         <v>5583791</v>
       </c>
       <c r="Q18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1645,7 +1648,7 @@
         <v>45</v>
       </c>
       <c r="E19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F19">
         <v>0.2325</v>
@@ -1675,19 +1678,19 @@
         <v>5583791</v>
       </c>
       <c r="Q19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1704,7 +1707,7 @@
         <v>45</v>
       </c>
       <c r="E20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F20">
         <v>0.017</v>
@@ -1719,7 +1722,7 @@
         <v>0.0251</v>
       </c>
       <c r="L20">
-        <v>0.016</v>
+        <v>0.017</v>
       </c>
       <c r="M20">
         <v>0.02047</v>
@@ -1734,19 +1737,19 @@
         <v>5583791</v>
       </c>
       <c r="Q20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -1763,7 +1766,7 @@
         <v>45</v>
       </c>
       <c r="E21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F21">
         <v>0.017</v>
@@ -1778,7 +1781,7 @@
         <v>0.0251</v>
       </c>
       <c r="L21">
-        <v>0.016</v>
+        <v>0.017</v>
       </c>
       <c r="M21">
         <v>0.02047</v>
@@ -1793,19 +1796,19 @@
         <v>5583791</v>
       </c>
       <c r="Q21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -1822,16 +1825,16 @@
         <v>45</v>
       </c>
       <c r="E22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F22">
         <v>320</v>
       </c>
       <c r="G22">
-        <v>1025.03500040075</v>
+        <v>1051.46743384375</v>
       </c>
       <c r="H22">
-        <v>10068.0650236444</v>
+        <v>11627.5785967814</v>
       </c>
       <c r="I22">
         <v>5025</v>
@@ -1843,7 +1846,7 @@
         <v>61.0169491525424</v>
       </c>
       <c r="L22">
-        <v>255</v>
+        <v>310</v>
       </c>
       <c r="M22">
         <v>1394</v>
@@ -1858,19 +1861,19 @@
         <v>5583791</v>
       </c>
       <c r="Q22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -1887,16 +1890,16 @@
         <v>45</v>
       </c>
       <c r="E23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F23">
         <v>320</v>
       </c>
       <c r="G23">
-        <v>1025.03500040075</v>
+        <v>1051.46743384375</v>
       </c>
       <c r="H23">
-        <v>10068.0650236444</v>
+        <v>11627.5785967814</v>
       </c>
       <c r="I23">
         <v>5025</v>
@@ -1908,7 +1911,7 @@
         <v>61.0169491525424</v>
       </c>
       <c r="L23">
-        <v>255</v>
+        <v>310</v>
       </c>
       <c r="M23">
         <v>1394</v>
@@ -1923,19 +1926,19 @@
         <v>5583791</v>
       </c>
       <c r="Q23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -1952,16 +1955,16 @@
         <v>45</v>
       </c>
       <c r="E24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F24">
         <v>320</v>
       </c>
       <c r="G24">
-        <v>1025.03500040075</v>
+        <v>1051.46743384375</v>
       </c>
       <c r="H24">
-        <v>10068.0650236444</v>
+        <v>11627.5785967814</v>
       </c>
       <c r="I24">
         <v>5025</v>
@@ -1973,7 +1976,7 @@
         <v>61.0169491525424</v>
       </c>
       <c r="L24">
-        <v>255</v>
+        <v>310</v>
       </c>
       <c r="M24">
         <v>1394</v>
@@ -1988,19 +1991,19 @@
         <v>5583791</v>
       </c>
       <c r="Q24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -2017,16 +2020,16 @@
         <v>45</v>
       </c>
       <c r="E25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F25">
         <v>320</v>
       </c>
       <c r="G25">
-        <v>1025.03500040075</v>
+        <v>1051.46743384375</v>
       </c>
       <c r="H25">
-        <v>10068.0650236444</v>
+        <v>11627.5785967814</v>
       </c>
       <c r="I25">
         <v>5025</v>
@@ -2038,7 +2041,7 @@
         <v>61.0169491525424</v>
       </c>
       <c r="L25">
-        <v>255</v>
+        <v>310</v>
       </c>
       <c r="M25">
         <v>1394</v>
@@ -2053,19 +2056,19 @@
         <v>5583791</v>
       </c>
       <c r="Q25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2082,13 +2085,13 @@
         <v>45</v>
       </c>
       <c r="E26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F26">
         <v>0.02203</v>
       </c>
       <c r="G26">
-        <v>0.0235766751872308</v>
+        <v>0.0235815686203894</v>
       </c>
       <c r="H26">
         <v>0.0656685061424687</v>
@@ -2097,7 +2100,7 @@
         <v>0.05331</v>
       </c>
       <c r="L26">
-        <v>0.0249</v>
+        <v>0.01933</v>
       </c>
       <c r="M26">
         <v>0.03467</v>
@@ -2112,19 +2115,19 @@
         <v>5583791</v>
       </c>
       <c r="Q26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2141,13 +2144,13 @@
         <v>45</v>
       </c>
       <c r="E27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F27">
         <v>0.02203</v>
       </c>
       <c r="G27">
-        <v>0.0235766751872308</v>
+        <v>0.0235815686203894</v>
       </c>
       <c r="H27">
         <v>0.0656685061424687</v>
@@ -2156,7 +2159,7 @@
         <v>0.05331</v>
       </c>
       <c r="L27">
-        <v>0.0249</v>
+        <v>0.01933</v>
       </c>
       <c r="M27">
         <v>0.03467</v>
@@ -2171,19 +2174,19 @@
         <v>5583791</v>
       </c>
       <c r="Q27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2200,7 +2203,7 @@
         <v>45</v>
       </c>
       <c r="E28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F28">
         <v>0.519</v>
@@ -2215,7 +2218,7 @@
         <v>0.8136</v>
       </c>
       <c r="L28">
-        <v>0.423</v>
+        <v>0.449</v>
       </c>
       <c r="M28">
         <v>0.68847</v>
@@ -2230,19 +2233,19 @@
         <v>5583791</v>
       </c>
       <c r="Q28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2259,7 +2262,7 @@
         <v>45</v>
       </c>
       <c r="E29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F29">
         <v>0.519</v>
@@ -2274,7 +2277,7 @@
         <v>0.8136</v>
       </c>
       <c r="L29">
-        <v>0.423</v>
+        <v>0.449</v>
       </c>
       <c r="M29">
         <v>0.68847</v>
@@ -2289,19 +2292,19 @@
         <v>5583791</v>
       </c>
       <c r="Q29" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2315,7 +2318,7 @@
         <v>45</v>
       </c>
       <c r="E30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F30">
         <v>0.556</v>
@@ -2330,7 +2333,7 @@
         <v>0.836</v>
       </c>
       <c r="L30">
-        <v>0.46</v>
+        <v>0.484</v>
       </c>
       <c r="M30">
         <v>0.72572</v>
@@ -2345,19 +2348,19 @@
         <v>5583791</v>
       </c>
       <c r="Q30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2371,7 +2374,7 @@
         <v>45</v>
       </c>
       <c r="E31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F31">
         <v>0.556</v>
@@ -2386,7 +2389,7 @@
         <v>0.836</v>
       </c>
       <c r="L31">
-        <v>0.46</v>
+        <v>0.484</v>
       </c>
       <c r="M31">
         <v>0.72572</v>
@@ -2401,19 +2404,19 @@
         <v>5583791</v>
       </c>
       <c r="Q31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T31" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2427,7 +2430,7 @@
         <v>45</v>
       </c>
       <c r="E32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F32">
         <v>0.8</v>
@@ -2442,7 +2445,7 @@
         <v>1.388</v>
       </c>
       <c r="L32">
-        <v>0.6850000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="M32">
         <v>1.0494</v>
@@ -2457,19 +2460,19 @@
         <v>5583791</v>
       </c>
       <c r="Q32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R32" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S32" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T32" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -2483,7 +2486,7 @@
         <v>45</v>
       </c>
       <c r="E33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F33">
         <v>0.8</v>
@@ -2498,7 +2501,7 @@
         <v>1.388</v>
       </c>
       <c r="L33">
-        <v>0.6850000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="M33">
         <v>1.0494</v>
@@ -2513,19 +2516,19 @@
         <v>5583791</v>
       </c>
       <c r="Q33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T33" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2539,7 +2542,7 @@
         <v>45</v>
       </c>
       <c r="E34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F34">
         <v>0.051</v>
@@ -2554,7 +2557,7 @@
         <v>0.2468</v>
       </c>
       <c r="L34">
-        <v>0.036</v>
+        <v>0.042</v>
       </c>
       <c r="M34">
         <v>0.12582</v>
@@ -2569,19 +2572,19 @@
         <v>5583791</v>
       </c>
       <c r="Q34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R34" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S34" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -2595,7 +2598,7 @@
         <v>45</v>
       </c>
       <c r="E35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F35">
         <v>0.051</v>
@@ -2610,7 +2613,7 @@
         <v>0.2468</v>
       </c>
       <c r="L35">
-        <v>0.036</v>
+        <v>0.042</v>
       </c>
       <c r="M35">
         <v>0.12582</v>
@@ -2625,19 +2628,19 @@
         <v>5583791</v>
       </c>
       <c r="Q35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:21">
@@ -2654,7 +2657,7 @@
         <v>46</v>
       </c>
       <c r="E36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F36">
         <v>0.23</v>
@@ -2669,7 +2672,7 @@
         <v>0.4865</v>
       </c>
       <c r="L36">
-        <v>0.32</v>
+        <v>0.245</v>
       </c>
       <c r="M36">
         <v>0.3505</v>
@@ -2684,19 +2687,19 @@
         <v>5583791</v>
       </c>
       <c r="Q36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:21">
@@ -2713,7 +2716,7 @@
         <v>46</v>
       </c>
       <c r="E37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F37">
         <v>0.017</v>
@@ -2728,7 +2731,7 @@
         <v>0.03255</v>
       </c>
       <c r="L37">
-        <v>0.017</v>
+        <v>0.018</v>
       </c>
       <c r="M37">
         <v>0.023</v>
@@ -2743,19 +2746,19 @@
         <v>5583791</v>
       </c>
       <c r="Q37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:21">
@@ -2772,7 +2775,7 @@
         <v>46</v>
       </c>
       <c r="E38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F38">
         <v>0.017</v>
@@ -2787,7 +2790,7 @@
         <v>0.03255</v>
       </c>
       <c r="L38">
-        <v>0.017</v>
+        <v>0.018</v>
       </c>
       <c r="M38">
         <v>0.023</v>
@@ -2802,19 +2805,19 @@
         <v>5583791</v>
       </c>
       <c r="Q38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:21">
@@ -2831,13 +2834,13 @@
         <v>46</v>
       </c>
       <c r="E39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F39">
         <v>380</v>
       </c>
       <c r="G39">
-        <v>1391.96605304639</v>
+        <v>1419.32594029441</v>
       </c>
       <c r="H39">
         <v>17250</v>
@@ -2852,7 +2855,7 @@
         <v>63.1578947368421</v>
       </c>
       <c r="L39">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="M39">
         <v>1581</v>
@@ -2867,19 +2870,19 @@
         <v>5583791</v>
       </c>
       <c r="Q39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:21">
@@ -2896,13 +2899,13 @@
         <v>46</v>
       </c>
       <c r="E40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F40">
         <v>380</v>
       </c>
       <c r="G40">
-        <v>1391.96605304639</v>
+        <v>1419.32594029441</v>
       </c>
       <c r="H40">
         <v>17250</v>
@@ -2917,7 +2920,7 @@
         <v>63.1578947368421</v>
       </c>
       <c r="L40">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="M40">
         <v>1581</v>
@@ -2932,19 +2935,19 @@
         <v>5583791</v>
       </c>
       <c r="Q40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T40" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:21">
@@ -2961,13 +2964,13 @@
         <v>46</v>
       </c>
       <c r="E41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F41">
         <v>380</v>
       </c>
       <c r="G41">
-        <v>1391.96605304639</v>
+        <v>1419.32594029441</v>
       </c>
       <c r="H41">
         <v>17250</v>
@@ -2982,7 +2985,7 @@
         <v>63.1578947368421</v>
       </c>
       <c r="L41">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="M41">
         <v>1581</v>
@@ -2997,19 +3000,19 @@
         <v>5583791</v>
       </c>
       <c r="Q41" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:21">
@@ -3026,13 +3029,13 @@
         <v>46</v>
       </c>
       <c r="E42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F42">
         <v>380</v>
       </c>
       <c r="G42">
-        <v>1391.96605304639</v>
+        <v>1419.32594029441</v>
       </c>
       <c r="H42">
         <v>17250</v>
@@ -3047,7 +3050,7 @@
         <v>63.1578947368421</v>
       </c>
       <c r="L42">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="M42">
         <v>1581</v>
@@ -3062,19 +3065,19 @@
         <v>5583791</v>
       </c>
       <c r="Q42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R42" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S42" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T42" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:21">
@@ -3091,13 +3094,13 @@
         <v>46</v>
       </c>
       <c r="E43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F43">
         <v>0.02279</v>
       </c>
       <c r="G43">
-        <v>0.0233177813348556</v>
+        <v>0.023322768872498</v>
       </c>
       <c r="H43">
         <v>0.0656685061424687</v>
@@ -3106,7 +3109,7 @@
         <v>0.05157</v>
       </c>
       <c r="L43">
-        <v>0.02389</v>
+        <v>0.02224</v>
       </c>
       <c r="M43">
         <v>0.03341</v>
@@ -3121,19 +3124,19 @@
         <v>5583791</v>
       </c>
       <c r="Q43" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R43" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S43" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T43" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:21">
@@ -3150,13 +3153,13 @@
         <v>46</v>
       </c>
       <c r="E44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F44">
         <v>0.02279</v>
       </c>
       <c r="G44">
-        <v>0.0233177813348556</v>
+        <v>0.023322768872498</v>
       </c>
       <c r="H44">
         <v>0.0656685061424687</v>
@@ -3165,7 +3168,7 @@
         <v>0.05157</v>
       </c>
       <c r="L44">
-        <v>0.02389</v>
+        <v>0.02224</v>
       </c>
       <c r="M44">
         <v>0.03341</v>
@@ -3180,19 +3183,19 @@
         <v>5583791</v>
       </c>
       <c r="Q44" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R44" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S44" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T44" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:21">
@@ -3209,7 +3212,7 @@
         <v>46</v>
       </c>
       <c r="E45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F45">
         <v>0.526</v>
@@ -3224,7 +3227,7 @@
         <v>0.8293</v>
       </c>
       <c r="L45">
-        <v>0.439</v>
+        <v>0.476</v>
       </c>
       <c r="M45">
         <v>0.70601</v>
@@ -3239,19 +3242,19 @@
         <v>5583791</v>
       </c>
       <c r="Q45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R45" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S45" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T45" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:21">
@@ -3268,7 +3271,7 @@
         <v>46</v>
       </c>
       <c r="E46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F46">
         <v>0.526</v>
@@ -3283,7 +3286,7 @@
         <v>0.8293</v>
       </c>
       <c r="L46">
-        <v>0.439</v>
+        <v>0.476</v>
       </c>
       <c r="M46">
         <v>0.70601</v>
@@ -3298,19 +3301,19 @@
         <v>5583791</v>
       </c>
       <c r="Q46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R46" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S46" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T46" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:21">
@@ -3324,7 +3327,7 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F47">
         <v>0.5600000000000001</v>
@@ -3339,7 +3342,7 @@
         <v>0.8542999999999999</v>
       </c>
       <c r="L47">
-        <v>0.471</v>
+        <v>0.51</v>
       </c>
       <c r="M47">
         <v>0.72963</v>
@@ -3354,19 +3357,19 @@
         <v>5583791</v>
       </c>
       <c r="Q47" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R47" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S47" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T47" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:21">
@@ -3380,7 +3383,7 @@
         <v>46</v>
       </c>
       <c r="E48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F48">
         <v>0.5600000000000001</v>
@@ -3395,7 +3398,7 @@
         <v>0.8542999999999999</v>
       </c>
       <c r="L48">
-        <v>0.471</v>
+        <v>0.51</v>
       </c>
       <c r="M48">
         <v>0.72963</v>
@@ -3410,19 +3413,19 @@
         <v>5583791</v>
       </c>
       <c r="Q48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R48" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S48" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T48" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:21">
@@ -3436,7 +3439,7 @@
         <v>46</v>
       </c>
       <c r="E49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F49">
         <v>0.82</v>
@@ -3451,7 +3454,7 @@
         <v>1.5055</v>
       </c>
       <c r="L49">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="M49">
         <v>1.0681</v>
@@ -3466,19 +3469,19 @@
         <v>5583791</v>
       </c>
       <c r="Q49" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R49" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S49" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T49" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U49" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:21">
@@ -3492,7 +3495,7 @@
         <v>46</v>
       </c>
       <c r="E50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F50">
         <v>0.82</v>
@@ -3507,7 +3510,7 @@
         <v>1.5055</v>
       </c>
       <c r="L50">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="M50">
         <v>1.0681</v>
@@ -3522,19 +3525,19 @@
         <v>5583791</v>
       </c>
       <c r="Q50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R50" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S50" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:21">
@@ -3548,7 +3551,7 @@
         <v>46</v>
       </c>
       <c r="E51" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F51">
         <v>0.056</v>
@@ -3563,7 +3566,7 @@
         <v>0.33795</v>
       </c>
       <c r="L51">
-        <v>0.038</v>
+        <v>0.0445</v>
       </c>
       <c r="M51">
         <v>0.13281</v>
@@ -3578,19 +3581,19 @@
         <v>5583791</v>
       </c>
       <c r="Q51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R51" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S51" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T51" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U51" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:21">
@@ -3604,7 +3607,7 @@
         <v>46</v>
       </c>
       <c r="E52" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F52">
         <v>0.056</v>
@@ -3619,7 +3622,7 @@
         <v>0.33795</v>
       </c>
       <c r="L52">
-        <v>0.038</v>
+        <v>0.0445</v>
       </c>
       <c r="M52">
         <v>0.13281</v>
@@ -3634,19 +3637,19 @@
         <v>5583791</v>
       </c>
       <c r="Q52" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R52" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S52" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T52" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U52" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:21">
@@ -3663,7 +3666,7 @@
         <v>47</v>
       </c>
       <c r="E53" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F53">
         <v>0.225</v>
@@ -3678,7 +3681,7 @@
         <v>0.48</v>
       </c>
       <c r="L53">
-        <v>0.205</v>
+        <v>0.32</v>
       </c>
       <c r="M53">
         <v>0.3772</v>
@@ -3693,19 +3696,19 @@
         <v>5583791</v>
       </c>
       <c r="Q53" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R53" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S53" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:21">
@@ -3722,7 +3725,7 @@
         <v>47</v>
       </c>
       <c r="E54" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F54">
         <v>0.017</v>
@@ -3737,7 +3740,7 @@
         <v>0.03465</v>
       </c>
       <c r="L54">
-        <v>0.016</v>
+        <v>0.017</v>
       </c>
       <c r="M54">
         <v>0.02466</v>
@@ -3752,19 +3755,19 @@
         <v>5583791</v>
       </c>
       <c r="Q54" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R54" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S54" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T54" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:21">
@@ -3781,7 +3784,7 @@
         <v>47</v>
       </c>
       <c r="E55" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F55">
         <v>0.017</v>
@@ -3796,7 +3799,7 @@
         <v>0.03465</v>
       </c>
       <c r="L55">
-        <v>0.016</v>
+        <v>0.017</v>
       </c>
       <c r="M55">
         <v>0.02466</v>
@@ -3811,19 +3814,19 @@
         <v>5583791</v>
       </c>
       <c r="Q55" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R55" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S55" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T55" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:21">
@@ -3840,13 +3843,13 @@
         <v>47</v>
       </c>
       <c r="E56" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F56">
         <v>330</v>
       </c>
       <c r="G56">
-        <v>1445.66794164009</v>
+        <v>1476.23487444669</v>
       </c>
       <c r="H56">
         <v>17250</v>
@@ -3861,13 +3864,13 @@
         <v>62.7450980392157</v>
       </c>
       <c r="L56">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="M56">
         <v>1583</v>
       </c>
       <c r="N56">
-        <v>4619.86</v>
+        <v>4619.628</v>
       </c>
       <c r="O56">
         <v>1762564</v>
@@ -3876,19 +3879,19 @@
         <v>5583791</v>
       </c>
       <c r="Q56" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R56" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S56" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T56" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U56" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:21">
@@ -3905,13 +3908,13 @@
         <v>47</v>
       </c>
       <c r="E57" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F57">
         <v>330</v>
       </c>
       <c r="G57">
-        <v>1445.66794164009</v>
+        <v>1476.23487444669</v>
       </c>
       <c r="H57">
         <v>17250</v>
@@ -3926,13 +3929,13 @@
         <v>62.7450980392157</v>
       </c>
       <c r="L57">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="M57">
         <v>1583</v>
       </c>
       <c r="N57">
-        <v>4619.86</v>
+        <v>4619.628</v>
       </c>
       <c r="O57">
         <v>1762564</v>
@@ -3941,19 +3944,19 @@
         <v>5583791</v>
       </c>
       <c r="Q57" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R57" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S57" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T57" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U57" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:21">
@@ -3970,13 +3973,13 @@
         <v>47</v>
       </c>
       <c r="E58" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F58">
         <v>330</v>
       </c>
       <c r="G58">
-        <v>1445.66794164009</v>
+        <v>1476.23487444669</v>
       </c>
       <c r="H58">
         <v>17250</v>
@@ -3991,13 +3994,13 @@
         <v>62.7450980392157</v>
       </c>
       <c r="L58">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="M58">
         <v>1583</v>
       </c>
       <c r="N58">
-        <v>4619.86</v>
+        <v>4619.628</v>
       </c>
       <c r="O58">
         <v>1762564</v>
@@ -4006,19 +4009,19 @@
         <v>5583791</v>
       </c>
       <c r="Q58" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R58" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S58" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T58" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U58" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:21">
@@ -4035,13 +4038,13 @@
         <v>47</v>
       </c>
       <c r="E59" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F59">
         <v>330</v>
       </c>
       <c r="G59">
-        <v>1445.66794164009</v>
+        <v>1476.23487444669</v>
       </c>
       <c r="H59">
         <v>17250</v>
@@ -4056,13 +4059,13 @@
         <v>62.7450980392157</v>
       </c>
       <c r="L59">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="M59">
         <v>1583</v>
       </c>
       <c r="N59">
-        <v>4619.86</v>
+        <v>4619.628</v>
       </c>
       <c r="O59">
         <v>1762564</v>
@@ -4071,19 +4074,19 @@
         <v>5583791</v>
       </c>
       <c r="Q59" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R59" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S59" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T59" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U59" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:21">
@@ -4100,13 +4103,13 @@
         <v>47</v>
       </c>
       <c r="E60" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F60">
         <v>0.02184</v>
       </c>
       <c r="G60">
-        <v>0.0238308254280005</v>
+        <v>0.0238362285937798</v>
       </c>
       <c r="H60">
         <v>0.0778197039545465</v>
@@ -4115,7 +4118,7 @@
         <v>0.05481</v>
       </c>
       <c r="L60">
-        <v>0.02389</v>
+        <v>0.02059</v>
       </c>
       <c r="M60">
         <v>0.03314</v>
@@ -4130,19 +4133,19 @@
         <v>5583791</v>
       </c>
       <c r="Q60" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R60" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S60" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T60" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U60" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:21">
@@ -4159,13 +4162,13 @@
         <v>47</v>
       </c>
       <c r="E61" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F61">
         <v>0.02184</v>
       </c>
       <c r="G61">
-        <v>0.0238308254280005</v>
+        <v>0.0238362285937798</v>
       </c>
       <c r="H61">
         <v>0.0778197039545465</v>
@@ -4174,7 +4177,7 @@
         <v>0.05481</v>
       </c>
       <c r="L61">
-        <v>0.02389</v>
+        <v>0.02059</v>
       </c>
       <c r="M61">
         <v>0.03314</v>
@@ -4189,19 +4192,19 @@
         <v>5583791</v>
       </c>
       <c r="Q61" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R61" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S61" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T61" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U61" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:21">
@@ -4218,7 +4221,7 @@
         <v>47</v>
       </c>
       <c r="E62" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F62">
         <v>0.551</v>
@@ -4233,7 +4236,7 @@
         <v>0.8299</v>
       </c>
       <c r="L62">
-        <v>0.439</v>
+        <v>0.492</v>
       </c>
       <c r="M62">
         <v>0.7266</v>
@@ -4248,19 +4251,19 @@
         <v>5583791</v>
       </c>
       <c r="Q62" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R62" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S62" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T62" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:21">
@@ -4277,7 +4280,7 @@
         <v>47</v>
       </c>
       <c r="E63" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F63">
         <v>0.551</v>
@@ -4292,7 +4295,7 @@
         <v>0.8299</v>
       </c>
       <c r="L63">
-        <v>0.439</v>
+        <v>0.492</v>
       </c>
       <c r="M63">
         <v>0.7266</v>
@@ -4307,19 +4310,19 @@
         <v>5583791</v>
       </c>
       <c r="Q63" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R63" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S63" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T63" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U63" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:21">
@@ -4333,7 +4336,7 @@
         <v>47</v>
       </c>
       <c r="E64" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F64">
         <v>0.582</v>
@@ -4348,7 +4351,7 @@
         <v>0.8609</v>
       </c>
       <c r="L64">
-        <v>0.471</v>
+        <v>0.521</v>
       </c>
       <c r="M64">
         <v>0.74769</v>
@@ -4363,19 +4366,19 @@
         <v>5583791</v>
       </c>
       <c r="Q64" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R64" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S64" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T64" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U64" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:21">
@@ -4389,7 +4392,7 @@
         <v>47</v>
       </c>
       <c r="E65" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F65">
         <v>0.582</v>
@@ -4404,7 +4407,7 @@
         <v>0.8609</v>
       </c>
       <c r="L65">
-        <v>0.471</v>
+        <v>0.521</v>
       </c>
       <c r="M65">
         <v>0.74769</v>
@@ -4419,19 +4422,19 @@
         <v>5583791</v>
       </c>
       <c r="Q65" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R65" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S65" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T65" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U65" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:21">
@@ -4445,7 +4448,7 @@
         <v>47</v>
       </c>
       <c r="E66" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F66">
         <v>0.86</v>
@@ -4460,7 +4463,7 @@
         <v>2.0525</v>
       </c>
       <c r="L66">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="M66">
         <v>1.07</v>
@@ -4475,19 +4478,19 @@
         <v>5583791</v>
       </c>
       <c r="Q66" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R66" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S66" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T66" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U66" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:21">
@@ -4501,7 +4504,7 @@
         <v>47</v>
       </c>
       <c r="E67" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F67">
         <v>0.86</v>
@@ -4516,7 +4519,7 @@
         <v>2.0525</v>
       </c>
       <c r="L67">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="M67">
         <v>1.07</v>
@@ -4531,19 +4534,19 @@
         <v>5583791</v>
       </c>
       <c r="Q67" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R67" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S67" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T67" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U67" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68" spans="1:21">
@@ -4557,7 +4560,7 @@
         <v>47</v>
       </c>
       <c r="E68" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F68">
         <v>0.056</v>
@@ -4572,7 +4575,7 @@
         <v>0.5044</v>
       </c>
       <c r="L68">
-        <v>0.036</v>
+        <v>0.048</v>
       </c>
       <c r="M68">
         <v>0.13283</v>
@@ -4587,19 +4590,19 @@
         <v>5583791</v>
       </c>
       <c r="Q68" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R68" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S68" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T68" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U68" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="1:21">
@@ -4613,7 +4616,7 @@
         <v>47</v>
       </c>
       <c r="E69" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F69">
         <v>0.056</v>
@@ -4628,7 +4631,7 @@
         <v>0.5044</v>
       </c>
       <c r="L69">
-        <v>0.036</v>
+        <v>0.048</v>
       </c>
       <c r="M69">
         <v>0.13283</v>
@@ -4643,19 +4646,969 @@
         <v>5583791</v>
       </c>
       <c r="Q69" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R69" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S69" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T69" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U69" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21">
+      <c r="A70" t="s">
+        <v>21</v>
+      </c>
+      <c r="B70" t="s">
+        <v>23</v>
+      </c>
+      <c r="C70" t="s">
+        <v>41</v>
+      </c>
+      <c r="D70" t="s">
+        <v>48</v>
+      </c>
+      <c r="E70" t="s">
+        <v>49</v>
+      </c>
+      <c r="F70">
+        <v>0.017</v>
+      </c>
+      <c r="G70">
+        <v>0.0175813953488372</v>
+      </c>
+      <c r="H70">
+        <v>0.041</v>
+      </c>
+      <c r="I70">
+        <v>0.03045</v>
+      </c>
+      <c r="L70">
+        <v>0.017</v>
+      </c>
+      <c r="M70">
+        <v>0.025</v>
+      </c>
+      <c r="N70">
+        <v>0.028</v>
+      </c>
+      <c r="O70">
+        <v>1762564</v>
+      </c>
+      <c r="P70">
+        <v>5583791</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>50</v>
+      </c>
+      <c r="R70" t="s">
+        <v>51</v>
+      </c>
+      <c r="S70" t="s">
+        <v>51</v>
+      </c>
+      <c r="T70" t="s">
+        <v>52</v>
+      </c>
+      <c r="U70" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21">
+      <c r="A71" t="s">
+        <v>21</v>
+      </c>
+      <c r="B71" t="s">
+        <v>24</v>
+      </c>
+      <c r="C71" t="s">
+        <v>41</v>
+      </c>
+      <c r="D71" t="s">
+        <v>48</v>
+      </c>
+      <c r="E71" t="s">
+        <v>49</v>
+      </c>
+      <c r="F71">
+        <v>0.017</v>
+      </c>
+      <c r="G71">
+        <v>0.0175813953488372</v>
+      </c>
+      <c r="H71">
+        <v>0.041</v>
+      </c>
+      <c r="I71">
+        <v>0.03045</v>
+      </c>
+      <c r="L71">
+        <v>0.017</v>
+      </c>
+      <c r="M71">
+        <v>0.025</v>
+      </c>
+      <c r="N71">
+        <v>0.028</v>
+      </c>
+      <c r="O71">
+        <v>1762564</v>
+      </c>
+      <c r="P71">
+        <v>5583791</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>50</v>
+      </c>
+      <c r="R71" t="s">
+        <v>51</v>
+      </c>
+      <c r="S71" t="s">
+        <v>51</v>
+      </c>
+      <c r="T71" t="s">
+        <v>52</v>
+      </c>
+      <c r="U71" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21">
+      <c r="A72" t="s">
+        <v>21</v>
+      </c>
+      <c r="B72" t="s">
+        <v>25</v>
+      </c>
+      <c r="C72" t="s">
+        <v>42</v>
+      </c>
+      <c r="D72" t="s">
+        <v>48</v>
+      </c>
+      <c r="E72" t="s">
+        <v>49</v>
+      </c>
+      <c r="F72">
+        <v>420</v>
+      </c>
+      <c r="G72">
+        <v>1520.00930232558</v>
+      </c>
+      <c r="H72">
+        <v>17250</v>
+      </c>
+      <c r="I72">
+        <v>7900.54</v>
+      </c>
+      <c r="J72">
+        <v>34.8837209302326</v>
+      </c>
+      <c r="K72">
+        <v>65.1162790697674</v>
+      </c>
+      <c r="L72">
+        <v>310</v>
+      </c>
+      <c r="M72">
+        <v>1911.964</v>
+      </c>
+      <c r="N72">
+        <v>4940.116</v>
+      </c>
+      <c r="O72">
+        <v>1762564</v>
+      </c>
+      <c r="P72">
+        <v>5583791</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>50</v>
+      </c>
+      <c r="R72" t="s">
+        <v>51</v>
+      </c>
+      <c r="S72" t="s">
+        <v>51</v>
+      </c>
+      <c r="T72" t="s">
+        <v>52</v>
+      </c>
+      <c r="U72" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21">
+      <c r="A73" t="s">
+        <v>21</v>
+      </c>
+      <c r="B73" t="s">
+        <v>26</v>
+      </c>
+      <c r="C73" t="s">
+        <v>42</v>
+      </c>
+      <c r="D73" t="s">
+        <v>48</v>
+      </c>
+      <c r="E73" t="s">
+        <v>49</v>
+      </c>
+      <c r="F73">
+        <v>420</v>
+      </c>
+      <c r="G73">
+        <v>1520.00930232558</v>
+      </c>
+      <c r="H73">
+        <v>17250</v>
+      </c>
+      <c r="I73">
+        <v>7900.54</v>
+      </c>
+      <c r="J73">
+        <v>34.8837209302326</v>
+      </c>
+      <c r="K73">
+        <v>65.1162790697674</v>
+      </c>
+      <c r="L73">
+        <v>310</v>
+      </c>
+      <c r="M73">
+        <v>1911.964</v>
+      </c>
+      <c r="N73">
+        <v>4940.116</v>
+      </c>
+      <c r="O73">
+        <v>1762564</v>
+      </c>
+      <c r="P73">
+        <v>5583791</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>50</v>
+      </c>
+      <c r="R73" t="s">
+        <v>51</v>
+      </c>
+      <c r="S73" t="s">
+        <v>51</v>
+      </c>
+      <c r="T73" t="s">
+        <v>52</v>
+      </c>
+      <c r="U73" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21">
+      <c r="A74" t="s">
+        <v>21</v>
+      </c>
+      <c r="B74" t="s">
+        <v>27</v>
+      </c>
+      <c r="C74" t="s">
+        <v>42</v>
+      </c>
+      <c r="D74" t="s">
+        <v>48</v>
+      </c>
+      <c r="E74" t="s">
+        <v>49</v>
+      </c>
+      <c r="F74">
+        <v>420</v>
+      </c>
+      <c r="G74">
+        <v>1520.00930232558</v>
+      </c>
+      <c r="H74">
+        <v>17250</v>
+      </c>
+      <c r="I74">
+        <v>7900.54</v>
+      </c>
+      <c r="J74">
+        <v>34.8837209302326</v>
+      </c>
+      <c r="K74">
+        <v>65.1162790697674</v>
+      </c>
+      <c r="L74">
+        <v>310</v>
+      </c>
+      <c r="M74">
+        <v>1911.964</v>
+      </c>
+      <c r="N74">
+        <v>4940.116</v>
+      </c>
+      <c r="O74">
+        <v>1762564</v>
+      </c>
+      <c r="P74">
+        <v>5583791</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>50</v>
+      </c>
+      <c r="R74" t="s">
+        <v>51</v>
+      </c>
+      <c r="S74" t="s">
+        <v>51</v>
+      </c>
+      <c r="T74" t="s">
+        <v>52</v>
+      </c>
+      <c r="U74" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21">
+      <c r="A75" t="s">
+        <v>21</v>
+      </c>
+      <c r="B75" t="s">
+        <v>28</v>
+      </c>
+      <c r="C75" t="s">
+        <v>42</v>
+      </c>
+      <c r="D75" t="s">
+        <v>48</v>
+      </c>
+      <c r="E75" t="s">
+        <v>49</v>
+      </c>
+      <c r="F75">
+        <v>420</v>
+      </c>
+      <c r="G75">
+        <v>1520.00930232558</v>
+      </c>
+      <c r="H75">
+        <v>17250</v>
+      </c>
+      <c r="I75">
+        <v>7900.54</v>
+      </c>
+      <c r="J75">
+        <v>34.8837209302326</v>
+      </c>
+      <c r="K75">
+        <v>65.1162790697674</v>
+      </c>
+      <c r="L75">
+        <v>310</v>
+      </c>
+      <c r="M75">
+        <v>1911.964</v>
+      </c>
+      <c r="N75">
+        <v>4940.116</v>
+      </c>
+      <c r="O75">
+        <v>1762564</v>
+      </c>
+      <c r="P75">
+        <v>5583791</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>50</v>
+      </c>
+      <c r="R75" t="s">
+        <v>51</v>
+      </c>
+      <c r="S75" t="s">
+        <v>51</v>
+      </c>
+      <c r="T75" t="s">
+        <v>52</v>
+      </c>
+      <c r="U75" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21">
+      <c r="A76" t="s">
+        <v>21</v>
+      </c>
+      <c r="B76" t="s">
+        <v>29</v>
+      </c>
+      <c r="C76" t="s">
+        <v>40</v>
+      </c>
+      <c r="D76" t="s">
+        <v>48</v>
+      </c>
+      <c r="E76" t="s">
+        <v>49</v>
+      </c>
+      <c r="F76">
+        <v>0.02007</v>
+      </c>
+      <c r="G76">
+        <v>0.0228841095437544</v>
+      </c>
+      <c r="H76">
+        <v>0.0778197039545465</v>
+      </c>
+      <c r="I76">
+        <v>0.06597</v>
+      </c>
+      <c r="L76">
+        <v>0.01832</v>
+      </c>
+      <c r="M76">
+        <v>0.03173</v>
+      </c>
+      <c r="N76">
+        <v>0.05819</v>
+      </c>
+      <c r="O76">
+        <v>1762564</v>
+      </c>
+      <c r="P76">
+        <v>5583791</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>50</v>
+      </c>
+      <c r="R76" t="s">
+        <v>51</v>
+      </c>
+      <c r="S76" t="s">
+        <v>51</v>
+      </c>
+      <c r="T76" t="s">
+        <v>52</v>
+      </c>
+      <c r="U76" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21">
+      <c r="A77" t="s">
+        <v>21</v>
+      </c>
+      <c r="B77" t="s">
+        <v>30</v>
+      </c>
+      <c r="C77" t="s">
+        <v>43</v>
+      </c>
+      <c r="D77" t="s">
+        <v>48</v>
+      </c>
+      <c r="E77" t="s">
+        <v>49</v>
+      </c>
+      <c r="F77">
+        <v>0.02007</v>
+      </c>
+      <c r="G77">
+        <v>0.0228841095437544</v>
+      </c>
+      <c r="H77">
+        <v>0.0778197039545465</v>
+      </c>
+      <c r="I77">
+        <v>0.06597</v>
+      </c>
+      <c r="L77">
+        <v>0.01832</v>
+      </c>
+      <c r="M77">
+        <v>0.03173</v>
+      </c>
+      <c r="N77">
+        <v>0.05819</v>
+      </c>
+      <c r="O77">
+        <v>1762564</v>
+      </c>
+      <c r="P77">
+        <v>5583791</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>50</v>
+      </c>
+      <c r="R77" t="s">
+        <v>51</v>
+      </c>
+      <c r="S77" t="s">
+        <v>51</v>
+      </c>
+      <c r="T77" t="s">
+        <v>52</v>
+      </c>
+      <c r="U77" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21">
+      <c r="A78" t="s">
+        <v>21</v>
+      </c>
+      <c r="B78" t="s">
+        <v>31</v>
+      </c>
+      <c r="C78" t="s">
+        <v>43</v>
+      </c>
+      <c r="D78" t="s">
+        <v>48</v>
+      </c>
+      <c r="E78" t="s">
+        <v>49</v>
+      </c>
+      <c r="F78">
+        <v>0.5639999999999999</v>
+      </c>
+      <c r="G78">
+        <v>0.585790697674419</v>
+      </c>
+      <c r="H78">
+        <v>0.914</v>
+      </c>
+      <c r="I78">
+        <v>0.84865</v>
+      </c>
+      <c r="L78">
+        <v>0.492</v>
+      </c>
+      <c r="M78">
+        <v>0.74514</v>
+      </c>
+      <c r="N78">
+        <v>0.78664</v>
+      </c>
+      <c r="O78">
+        <v>1762564</v>
+      </c>
+      <c r="P78">
+        <v>5583791</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>50</v>
+      </c>
+      <c r="R78" t="s">
+        <v>51</v>
+      </c>
+      <c r="S78" t="s">
+        <v>51</v>
+      </c>
+      <c r="T78" t="s">
+        <v>52</v>
+      </c>
+      <c r="U78" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21">
+      <c r="A79" t="s">
+        <v>21</v>
+      </c>
+      <c r="B79" t="s">
+        <v>32</v>
+      </c>
+      <c r="C79" t="s">
+        <v>43</v>
+      </c>
+      <c r="D79" t="s">
+        <v>48</v>
+      </c>
+      <c r="E79" t="s">
+        <v>49</v>
+      </c>
+      <c r="F79">
+        <v>0.5639999999999999</v>
+      </c>
+      <c r="G79">
+        <v>0.585790697674419</v>
+      </c>
+      <c r="H79">
+        <v>0.914</v>
+      </c>
+      <c r="I79">
+        <v>0.84865</v>
+      </c>
+      <c r="L79">
+        <v>0.492</v>
+      </c>
+      <c r="M79">
+        <v>0.74514</v>
+      </c>
+      <c r="N79">
+        <v>0.78664</v>
+      </c>
+      <c r="O79">
+        <v>1762564</v>
+      </c>
+      <c r="P79">
+        <v>5583791</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>50</v>
+      </c>
+      <c r="R79" t="s">
+        <v>51</v>
+      </c>
+      <c r="S79" t="s">
+        <v>51</v>
+      </c>
+      <c r="T79" t="s">
+        <v>52</v>
+      </c>
+      <c r="U79" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21">
+      <c r="A80" t="s">
+        <v>21</v>
+      </c>
+      <c r="B80" t="s">
+        <v>33</v>
+      </c>
+      <c r="D80" t="s">
+        <v>48</v>
+      </c>
+      <c r="E80" t="s">
+        <v>49</v>
+      </c>
+      <c r="F80">
+        <v>0.592</v>
+      </c>
+      <c r="G80">
+        <v>0.614058139534884</v>
+      </c>
+      <c r="H80">
+        <v>0.948</v>
+      </c>
+      <c r="I80">
+        <v>0.88615</v>
+      </c>
+      <c r="L80">
+        <v>0.521</v>
+      </c>
+      <c r="M80">
+        <v>0.77876</v>
+      </c>
+      <c r="N80">
+        <v>0.82816</v>
+      </c>
+      <c r="O80">
+        <v>1762564</v>
+      </c>
+      <c r="P80">
+        <v>5583791</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>50</v>
+      </c>
+      <c r="R80" t="s">
+        <v>51</v>
+      </c>
+      <c r="S80" t="s">
+        <v>51</v>
+      </c>
+      <c r="T80" t="s">
+        <v>52</v>
+      </c>
+      <c r="U80" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21">
+      <c r="A81" t="s">
+        <v>21</v>
+      </c>
+      <c r="B81" t="s">
+        <v>34</v>
+      </c>
+      <c r="D81" t="s">
+        <v>48</v>
+      </c>
+      <c r="E81" t="s">
+        <v>49</v>
+      </c>
+      <c r="F81">
+        <v>0.592</v>
+      </c>
+      <c r="G81">
+        <v>0.614058139534884</v>
+      </c>
+      <c r="H81">
+        <v>0.948</v>
+      </c>
+      <c r="I81">
+        <v>0.88615</v>
+      </c>
+      <c r="L81">
+        <v>0.521</v>
+      </c>
+      <c r="M81">
+        <v>0.77876</v>
+      </c>
+      <c r="N81">
+        <v>0.82816</v>
+      </c>
+      <c r="O81">
+        <v>1762564</v>
+      </c>
+      <c r="P81">
+        <v>5583791</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>50</v>
+      </c>
+      <c r="R81" t="s">
+        <v>51</v>
+      </c>
+      <c r="S81" t="s">
+        <v>51</v>
+      </c>
+      <c r="T81" t="s">
+        <v>52</v>
+      </c>
+      <c r="U81" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21">
+      <c r="A82" t="s">
+        <v>21</v>
+      </c>
+      <c r="B82" t="s">
+        <v>35</v>
+      </c>
+      <c r="D82" t="s">
+        <v>48</v>
+      </c>
+      <c r="E82" t="s">
+        <v>49</v>
+      </c>
+      <c r="F82">
+        <v>0.91</v>
+      </c>
+      <c r="G82">
+        <v>1.04046511627907</v>
+      </c>
+      <c r="H82">
+        <v>3.74</v>
+      </c>
+      <c r="I82">
+        <v>2.16</v>
+      </c>
+      <c r="L82">
+        <v>0.71</v>
+      </c>
+      <c r="M82">
+        <v>1.2652</v>
+      </c>
+      <c r="N82">
+        <v>2.0806</v>
+      </c>
+      <c r="O82">
+        <v>1762564</v>
+      </c>
+      <c r="P82">
+        <v>5583791</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>50</v>
+      </c>
+      <c r="R82" t="s">
+        <v>51</v>
+      </c>
+      <c r="S82" t="s">
+        <v>51</v>
+      </c>
+      <c r="T82" t="s">
+        <v>52</v>
+      </c>
+      <c r="U82" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21">
+      <c r="A83" t="s">
+        <v>21</v>
+      </c>
+      <c r="B83" t="s">
+        <v>36</v>
+      </c>
+      <c r="D83" t="s">
+        <v>48</v>
+      </c>
+      <c r="E83" t="s">
+        <v>49</v>
+      </c>
+      <c r="F83">
+        <v>0.91</v>
+      </c>
+      <c r="G83">
+        <v>1.04046511627907</v>
+      </c>
+      <c r="H83">
+        <v>3.74</v>
+      </c>
+      <c r="I83">
+        <v>2.16</v>
+      </c>
+      <c r="L83">
+        <v>0.71</v>
+      </c>
+      <c r="M83">
+        <v>1.2652</v>
+      </c>
+      <c r="N83">
+        <v>2.0806</v>
+      </c>
+      <c r="O83">
+        <v>1762564</v>
+      </c>
+      <c r="P83">
+        <v>5583791</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>50</v>
+      </c>
+      <c r="R83" t="s">
+        <v>51</v>
+      </c>
+      <c r="S83" t="s">
+        <v>51</v>
+      </c>
+      <c r="T83" t="s">
+        <v>52</v>
+      </c>
+      <c r="U83" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21">
+      <c r="A84" t="s">
+        <v>21</v>
+      </c>
+      <c r="B84" t="s">
+        <v>37</v>
+      </c>
+      <c r="D84" t="s">
+        <v>48</v>
+      </c>
+      <c r="E84" t="s">
+        <v>49</v>
+      </c>
+      <c r="F84">
+        <v>0.066</v>
+      </c>
+      <c r="G84">
+        <v>0.141813953488372</v>
+      </c>
+      <c r="H84">
+        <v>1.14</v>
+      </c>
+      <c r="I84">
+        <v>0.6058</v>
+      </c>
+      <c r="L84">
+        <v>0.048</v>
+      </c>
+      <c r="M84">
+        <v>0.16209</v>
+      </c>
+      <c r="N84">
+        <v>0.50918</v>
+      </c>
+      <c r="O84">
+        <v>1762564</v>
+      </c>
+      <c r="P84">
+        <v>5583791</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>50</v>
+      </c>
+      <c r="R84" t="s">
+        <v>51</v>
+      </c>
+      <c r="S84" t="s">
+        <v>51</v>
+      </c>
+      <c r="T84" t="s">
+        <v>52</v>
+      </c>
+      <c r="U84" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21">
+      <c r="A85" t="s">
+        <v>21</v>
+      </c>
+      <c r="B85" t="s">
+        <v>38</v>
+      </c>
+      <c r="D85" t="s">
+        <v>48</v>
+      </c>
+      <c r="E85" t="s">
+        <v>49</v>
+      </c>
+      <c r="F85">
+        <v>0.066</v>
+      </c>
+      <c r="G85">
+        <v>0.141813953488372</v>
+      </c>
+      <c r="H85">
+        <v>1.14</v>
+      </c>
+      <c r="I85">
+        <v>0.6058</v>
+      </c>
+      <c r="L85">
+        <v>0.048</v>
+      </c>
+      <c r="M85">
+        <v>0.16209</v>
+      </c>
+      <c r="N85">
+        <v>0.50918</v>
+      </c>
+      <c r="O85">
+        <v>1762564</v>
+      </c>
+      <c r="P85">
+        <v>5583791</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>50</v>
+      </c>
+      <c r="R85" t="s">
+        <v>51</v>
+      </c>
+      <c r="S85" t="s">
+        <v>51</v>
+      </c>
+      <c r="T85" t="s">
+        <v>52</v>
+      </c>
+      <c r="U85" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
